--- a/2 - Analisis y Diseño/Casos de Prueba/CP - Administracion de Usuarios.xlsx
+++ b/2 - Analisis y Diseño/Casos de Prueba/CP - Administracion de Usuarios.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="85">
   <si>
     <t>Datos de prueba</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Observación</t>
   </si>
   <si>
-    <t>Deukin - Registro</t>
-  </si>
-  <si>
     <t>Deukin - Administración de Usuarios</t>
   </si>
   <si>
@@ -231,9 +228,6 @@
     <t>Crear Asignación</t>
   </si>
   <si>
-    <t>Redirige a la pantalla de Asignaciones de Rol, notificando que se creó. Debe aparecer la asignación en la lista.</t>
-  </si>
-  <si>
     <t>Quitar Rol</t>
   </si>
   <si>
@@ -243,33 +237,6 @@
     <t>Usuario con Rol Agregado en el Caso 4</t>
   </si>
   <si>
-    <t>Presionar sobre el  nombre de usuarioemail (mismo del caso anterior)</t>
-  </si>
-  <si>
-    <t>Hacer Clic en Asignación de Roles</t>
-  </si>
-  <si>
-    <t>Redirige a la pantalla de Listado de Asignaciónes de Usuario y Rol</t>
-  </si>
-  <si>
-    <t>Redirige a la pantalla de la asignación elegida.</t>
-  </si>
-  <si>
-    <t>Debe Mostrar nombre de  Usuario y Rol.</t>
-  </si>
-  <si>
-    <t>Eliminar Rol</t>
-  </si>
-  <si>
-    <t>Aparce un dialogo de confirmación.</t>
-  </si>
-  <si>
-    <t>Aceptar Eliminación</t>
-  </si>
-  <si>
-    <t>Redirige a la lista de Asignaciones de Usuario / Rol</t>
-  </si>
-  <si>
     <t>Modificar Usuario</t>
   </si>
   <si>
@@ -286,6 +253,27 @@
   </si>
   <si>
     <t>Muestra el Mensaje: El campo "Nombre de Usuario" debe ser único</t>
+  </si>
+  <si>
+    <t>Presionar Boton +</t>
+  </si>
+  <si>
+    <t>Redirige a la pantalla de del Usuario de Rol donde ya se puede observar el nuevo rol asignado.</t>
+  </si>
+  <si>
+    <t>Presionar Boton (Papelera)</t>
+  </si>
+  <si>
+    <t>Muestra Dialogo de Confirmación.</t>
+  </si>
+  <si>
+    <t>Aceptar</t>
+  </si>
+  <si>
+    <t>Ver</t>
+  </si>
+  <si>
+    <t>Muestra la pantalla del usuario sin el Rol eliminado.</t>
   </si>
 </sst>
 </file>
@@ -999,7 +987,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1121,74 +1109,11 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="14" xfId="216" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="12" xfId="216" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="24" xfId="216" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="15" xfId="216" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="22" xfId="216" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="6" xfId="216" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="21" xfId="216" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="7" xfId="216" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="24" xfId="216" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1199,6 +1124,75 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="14" xfId="216" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="12" xfId="216" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="24" xfId="216" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="6" xfId="216" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="21" xfId="216" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="7" xfId="216" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="15" xfId="216" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="22" xfId="216" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="24" xfId="216" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1724,13 +1718,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R43"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="11" topLeftCell="F12" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="5" ySplit="11" topLeftCell="F27" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15:H23"/>
+      <selection pane="bottomRight" activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1762,7 +1756,7 @@
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
@@ -1799,13 +1793,13 @@
     </row>
     <row r="3" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="15"/>
@@ -2036,27 +2030,27 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="61">
+      <c r="A12" s="69">
         <v>1</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="63" t="s">
-        <v>38</v>
+      <c r="D12" s="72" t="s">
+        <v>37</v>
       </c>
       <c r="E12" s="13">
         <v>1</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" s="24"/>
       <c r="H12" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I12" s="28"/>
       <c r="J12" s="31">
@@ -2067,107 +2061,107 @@
         <f t="shared" ref="K12" si="1">+IF(I12="OK",1,0)</f>
         <v>0</v>
       </c>
-      <c r="L12" s="51">
+      <c r="L12" s="57">
         <f>+(COUNTIF(J12:J14,1))</f>
         <v>0</v>
       </c>
-      <c r="M12" s="48">
+      <c r="M12" s="54">
         <f>+COUNT(E12:E14)</f>
         <v>3</v>
       </c>
-      <c r="N12" s="51">
+      <c r="N12" s="57">
         <f>+(COUNTIF(K12:K14,1))</f>
         <v>0</v>
       </c>
-      <c r="O12" s="54">
-        <v>0</v>
-      </c>
-      <c r="P12" s="59">
+      <c r="O12" s="60">
+        <v>0</v>
+      </c>
+      <c r="P12" s="63">
         <f>+L12/M12</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="57">
+      <c r="Q12" s="66">
         <f>+N12/M12</f>
         <v>0</v>
       </c>
       <c r="R12" s="32"/>
     </row>
     <row r="13" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="62"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="64"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="73"/>
       <c r="E13" s="1">
         <v>2</v>
       </c>
       <c r="F13" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="46" t="s">
+      <c r="H13" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="41"/>
       <c r="K13" s="41"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="67"/>
       <c r="R13" s="30"/>
     </row>
     <row r="14" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="64"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="73"/>
       <c r="E14" s="1">
         <v>3</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="41"/>
       <c r="K14" s="41"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="67"/>
       <c r="R14" s="30"/>
     </row>
     <row r="15" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="61">
+      <c r="A15" s="69">
         <v>2</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="D15" s="72" t="s">
         <v>44</v>
-      </c>
-      <c r="D15" s="63" t="s">
-        <v>45</v>
       </c>
       <c r="E15" s="13">
         <v>1</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G15" s="24"/>
       <c r="H15" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I15" s="28"/>
       <c r="J15" s="31">
@@ -2178,269 +2172,269 @@
         <f t="shared" ref="K15" si="3">+IF(I15="OK",1,0)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="51">
+      <c r="L15" s="57">
         <f>+(COUNTIF(J15:J23,1))</f>
         <v>0</v>
       </c>
-      <c r="M15" s="48">
+      <c r="M15" s="54">
         <f>+COUNT(E15:E23)</f>
         <v>9</v>
       </c>
-      <c r="N15" s="51">
+      <c r="N15" s="57">
         <f>+(COUNTIF(K15:K23,1))</f>
         <v>0</v>
       </c>
-      <c r="O15" s="54">
-        <v>0</v>
-      </c>
-      <c r="P15" s="59">
+      <c r="O15" s="60">
+        <v>0</v>
+      </c>
+      <c r="P15" s="63">
         <f>+L15/M15</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="57">
+      <c r="Q15" s="66">
         <f>+N15/M15</f>
         <v>0</v>
       </c>
       <c r="R15" s="32"/>
     </row>
     <row r="16" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="62"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="64"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="73"/>
       <c r="E16" s="1">
         <v>2</v>
       </c>
       <c r="F16" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="46" t="s">
+      <c r="H16" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="41"/>
       <c r="K16" s="41"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="67"/>
       <c r="R16" s="30"/>
     </row>
     <row r="17" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="62"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="64"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="73"/>
       <c r="E17" s="1">
         <v>3</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="41"/>
       <c r="K17" s="41"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="67"/>
       <c r="R17" s="30"/>
     </row>
     <row r="18" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="62"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="64"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="73"/>
       <c r="E18" s="1">
         <v>4</v>
       </c>
       <c r="F18" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="H18" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>42</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="41"/>
       <c r="K18" s="41"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="67"/>
       <c r="R18" s="30"/>
     </row>
     <row r="19" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="62"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="64"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="73"/>
       <c r="E19" s="1">
         <v>5</v>
       </c>
       <c r="F19" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="21" t="s">
         <v>46</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>47</v>
       </c>
       <c r="H19" s="29"/>
       <c r="I19" s="5"/>
       <c r="J19" s="41"/>
       <c r="K19" s="41"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="67"/>
       <c r="R19" s="30"/>
     </row>
     <row r="20" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="62"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="64"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="73"/>
       <c r="E20" s="1">
         <v>6</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="21" t="s">
-        <v>49</v>
-      </c>
       <c r="H20" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="41"/>
       <c r="K20" s="41"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="67"/>
       <c r="R20" s="30"/>
     </row>
     <row r="21" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="62"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="64"/>
+      <c r="A21" s="70"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="73"/>
       <c r="E21" s="1">
         <v>7</v>
       </c>
       <c r="F21" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="21" t="s">
         <v>50</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>51</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="5"/>
       <c r="J21" s="41"/>
       <c r="K21" s="41"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="67"/>
       <c r="R21" s="30"/>
     </row>
     <row r="22" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="62"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="64"/>
+      <c r="A22" s="70"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="73"/>
       <c r="E22" s="1">
         <v>8</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="5"/>
       <c r="J22" s="41"/>
       <c r="K22" s="41"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="67"/>
       <c r="R22" s="30"/>
     </row>
-    <row r="23" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
+    <row r="23" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="71"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
       <c r="E23" s="6">
         <v>9</v>
       </c>
-      <c r="F23" s="66" t="s">
+      <c r="F23" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="68"/>
+      <c r="R23" s="49"/>
+    </row>
+    <row r="24" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="69">
+        <v>3</v>
+      </c>
+      <c r="B24" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="69"/>
-      <c r="R23" s="70"/>
-    </row>
-    <row r="24" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="61">
-        <v>3</v>
-      </c>
-      <c r="B24" s="61" t="s">
+      <c r="C24" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="72" t="s">
         <v>58</v>
-      </c>
-      <c r="C24" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="63" t="s">
-        <v>59</v>
       </c>
       <c r="E24" s="13">
         <v>1</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24" s="24"/>
       <c r="H24" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I24" s="28"/>
       <c r="J24" s="31">
@@ -2451,269 +2445,269 @@
         <f t="shared" ref="K24" si="5">+IF(I24="OK",1,0)</f>
         <v>0</v>
       </c>
-      <c r="L24" s="51">
+      <c r="L24" s="57">
         <f>+(COUNTIF(J24:J32,1))</f>
         <v>0</v>
       </c>
-      <c r="M24" s="48">
+      <c r="M24" s="54">
         <f>+COUNT(E24:E32)</f>
         <v>9</v>
       </c>
-      <c r="N24" s="51">
+      <c r="N24" s="57">
         <f>+(COUNTIF(K24:K32,1))</f>
         <v>0</v>
       </c>
-      <c r="O24" s="54">
-        <v>0</v>
-      </c>
-      <c r="P24" s="59">
+      <c r="O24" s="60">
+        <v>0</v>
+      </c>
+      <c r="P24" s="63">
         <f>+L24/M24</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="57">
+      <c r="Q24" s="66">
         <f>+N24/M24</f>
         <v>0</v>
       </c>
       <c r="R24" s="32"/>
     </row>
     <row r="25" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="62"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="64"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="73"/>
       <c r="E25" s="1">
         <v>2</v>
       </c>
       <c r="F25" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="46" t="s">
+      <c r="H25" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="41"/>
       <c r="K25" s="41"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="67"/>
       <c r="R25" s="30"/>
     </row>
     <row r="26" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="62"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="64"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="73"/>
       <c r="E26" s="1">
         <v>3</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G26" s="21"/>
       <c r="H26" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="41"/>
       <c r="K26" s="41"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="67"/>
       <c r="R26" s="30"/>
     </row>
     <row r="27" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="62"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="64"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="73"/>
       <c r="E27" s="1">
         <v>4</v>
       </c>
       <c r="F27" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="29" t="s">
+      <c r="H27" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>42</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="41"/>
       <c r="K27" s="41"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="60"/>
-      <c r="Q27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="67"/>
       <c r="R27" s="30"/>
     </row>
     <row r="28" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="62"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="64"/>
+      <c r="A28" s="70"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="73"/>
       <c r="E28" s="1">
         <v>5</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H28" s="29"/>
       <c r="I28" s="5"/>
       <c r="J28" s="41"/>
       <c r="K28" s="41"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="60"/>
-      <c r="Q28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="67"/>
       <c r="R28" s="30"/>
     </row>
     <row r="29" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="62"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="64"/>
+      <c r="A29" s="70"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="73"/>
       <c r="E29" s="1">
         <v>6</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="21" t="s">
-        <v>49</v>
-      </c>
       <c r="H29" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="41"/>
       <c r="K29" s="41"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="67"/>
       <c r="R29" s="30"/>
     </row>
     <row r="30" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="62"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="64"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="73"/>
       <c r="E30" s="1">
         <v>7</v>
       </c>
       <c r="F30" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="21" t="s">
         <v>50</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>51</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="5"/>
       <c r="J30" s="41"/>
       <c r="K30" s="41"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="64"/>
+      <c r="Q30" s="67"/>
       <c r="R30" s="30"/>
     </row>
     <row r="31" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="62"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="64"/>
+      <c r="A31" s="70"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="73"/>
       <c r="E31" s="1">
         <v>8</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H31" s="12"/>
       <c r="I31" s="5"/>
       <c r="J31" s="41"/>
       <c r="K31" s="41"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="60"/>
-      <c r="Q31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="67"/>
       <c r="R31" s="30"/>
     </row>
     <row r="32" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
+      <c r="A32" s="71"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
       <c r="E32" s="6">
         <v>9</v>
       </c>
-      <c r="F32" s="66" t="s">
-        <v>57</v>
+      <c r="F32" s="47" t="s">
+        <v>56</v>
       </c>
       <c r="G32" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H32" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="I32" s="8"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="65"/>
+      <c r="Q32" s="68"/>
+      <c r="R32" s="49"/>
+    </row>
+    <row r="33" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="69">
+        <v>4</v>
+      </c>
+      <c r="B33" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="I32" s="8"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="56"/>
-      <c r="P32" s="68"/>
-      <c r="Q32" s="69"/>
-      <c r="R32" s="70"/>
-    </row>
-    <row r="33" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="61">
-        <v>4</v>
-      </c>
-      <c r="B33" s="61" t="s">
+      <c r="C33" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="63" t="s">
-        <v>38</v>
+      <c r="D33" s="72" t="s">
+        <v>37</v>
       </c>
       <c r="E33" s="13">
         <v>1</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G33" s="24"/>
       <c r="H33" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I33" s="28"/>
       <c r="J33" s="31">
@@ -2724,189 +2718,189 @@
         <f t="shared" ref="K33" si="7">+IF(I33="OK",1,0)</f>
         <v>0</v>
       </c>
-      <c r="L33" s="51">
+      <c r="L33" s="57">
         <f>+(COUNTIF(J33:J38,1))</f>
         <v>0</v>
       </c>
-      <c r="M33" s="48">
+      <c r="M33" s="54">
         <f>+COUNT(E33:E38)</f>
         <v>6</v>
       </c>
-      <c r="N33" s="51">
+      <c r="N33" s="57">
         <f>+(COUNTIF(K33:K38,1))</f>
         <v>0</v>
       </c>
-      <c r="O33" s="54">
-        <v>0</v>
-      </c>
-      <c r="P33" s="59">
+      <c r="O33" s="60">
+        <v>0</v>
+      </c>
+      <c r="P33" s="63">
         <f>+L33/M33</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="57">
+      <c r="Q33" s="66">
         <f>+N33/M33</f>
         <v>0</v>
       </c>
       <c r="R33" s="32"/>
     </row>
     <row r="34" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="62"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="64"/>
+      <c r="A34" s="70"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="73"/>
       <c r="E34" s="1">
         <v>2</v>
       </c>
       <c r="F34" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="46" t="s">
+      <c r="H34" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="41"/>
       <c r="K34" s="41"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="55"/>
-      <c r="P34" s="60"/>
-      <c r="Q34" s="58"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="61"/>
+      <c r="P34" s="64"/>
+      <c r="Q34" s="67"/>
       <c r="R34" s="30"/>
     </row>
     <row r="35" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="62"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="64"/>
+      <c r="A35" s="70"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="73"/>
       <c r="E35" s="1">
         <v>3</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G35" s="21"/>
       <c r="H35" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="41"/>
       <c r="K35" s="41"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="55"/>
-      <c r="P35" s="60"/>
-      <c r="Q35" s="58"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="58"/>
+      <c r="O35" s="61"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="67"/>
       <c r="R35" s="30"/>
     </row>
     <row r="36" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="62"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="64"/>
+      <c r="A36" s="70"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="73"/>
       <c r="E36" s="1">
         <v>4</v>
       </c>
       <c r="F36" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="H36" s="12" t="s">
         <v>65</v>
-      </c>
-      <c r="G36" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>66</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="41"/>
       <c r="K36" s="41"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="55"/>
-      <c r="P36" s="60"/>
-      <c r="Q36" s="58"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="58"/>
+      <c r="O36" s="61"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="67"/>
       <c r="R36" s="30"/>
     </row>
     <row r="37" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="62"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="64"/>
+      <c r="A37" s="70"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="73"/>
       <c r="E37" s="1">
         <v>5</v>
       </c>
       <c r="F37" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G37" s="21" t="s">
         <v>67</v>
-      </c>
-      <c r="G37" s="21" t="s">
-        <v>68</v>
       </c>
       <c r="H37" s="29"/>
       <c r="I37" s="5"/>
       <c r="J37" s="41"/>
       <c r="K37" s="41"/>
-      <c r="L37" s="52"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="52"/>
-      <c r="O37" s="55"/>
-      <c r="P37" s="60"/>
-      <c r="Q37" s="58"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="58"/>
+      <c r="O37" s="61"/>
+      <c r="P37" s="64"/>
+      <c r="Q37" s="67"/>
       <c r="R37" s="30"/>
     </row>
     <row r="38" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="65"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
+      <c r="A38" s="73"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
       <c r="E38" s="6">
         <v>6</v>
       </c>
       <c r="F38" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I38" s="8"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="59"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="59"/>
+      <c r="O38" s="62"/>
+      <c r="P38" s="65"/>
+      <c r="Q38" s="68"/>
+      <c r="R38" s="49"/>
+    </row>
+    <row r="39" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="75">
+        <v>5</v>
+      </c>
+      <c r="B39" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="G38" s="71" t="s">
-        <v>64</v>
-      </c>
-      <c r="H38" s="8" t="s">
+      <c r="C39" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="I38" s="8"/>
-      <c r="J38" s="67"/>
-      <c r="K38" s="67"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="56"/>
-      <c r="P38" s="68"/>
-      <c r="Q38" s="69"/>
-      <c r="R38" s="70"/>
-    </row>
-    <row r="39" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="61">
-        <v>5</v>
-      </c>
-      <c r="B39" s="61" t="s">
+      <c r="D39" s="75" t="s">
         <v>71</v>
-      </c>
-      <c r="C39" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="D39" s="63" t="s">
-        <v>73</v>
       </c>
       <c r="E39" s="13">
         <v>1</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="G39" s="24"/>
       <c r="H39" s="25" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="I39" s="28"/>
       <c r="J39" s="31">
@@ -2917,198 +2911,224 @@
         <f t="shared" ref="K39" si="9">+IF(I39="OK",1,0)</f>
         <v>0</v>
       </c>
-      <c r="L39" s="51">
-        <f>+(COUNTIF(J39:J43,1))</f>
-        <v>0</v>
-      </c>
-      <c r="M39" s="48">
-        <f>+COUNT(E39:E43)</f>
-        <v>5</v>
-      </c>
-      <c r="N39" s="51">
-        <f>+(COUNTIF(K39:K43,1))</f>
-        <v>0</v>
-      </c>
-      <c r="O39" s="54">
-        <v>0</v>
-      </c>
-      <c r="P39" s="59">
+      <c r="L39" s="57">
+        <f>+(COUNTIF(J39:J44,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="54">
+        <f>+COUNT(E39:E44)</f>
+        <v>6</v>
+      </c>
+      <c r="N39" s="57">
+        <f>+(COUNTIF(K39:K44,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O39" s="60">
+        <v>0</v>
+      </c>
+      <c r="P39" s="63">
         <f>+L39/M39</f>
         <v>0</v>
       </c>
-      <c r="Q39" s="57">
+      <c r="Q39" s="66">
         <f>+N39/M39</f>
         <v>0</v>
       </c>
       <c r="R39" s="32"/>
     </row>
-    <row r="40" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="62"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="64"/>
+    <row r="40" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="75"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
       <c r="E40" s="1">
         <v>2</v>
       </c>
       <c r="F40" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G40" s="46" t="s">
-        <v>74</v>
-      </c>
       <c r="H40" s="12" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="41"/>
       <c r="K40" s="41"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="55"/>
-      <c r="P40" s="60"/>
-      <c r="Q40" s="58"/>
+      <c r="L40" s="58"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="58"/>
+      <c r="O40" s="61"/>
+      <c r="P40" s="64"/>
+      <c r="Q40" s="67"/>
       <c r="R40" s="30"/>
     </row>
-    <row r="41" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="62"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="64"/>
+    <row r="41" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="75"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="75"/>
       <c r="E41" s="1">
         <v>3</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G41" s="21"/>
       <c r="H41" s="12" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="41"/>
       <c r="K41" s="41"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="52"/>
-      <c r="O41" s="55"/>
-      <c r="P41" s="60"/>
-      <c r="Q41" s="58"/>
+      <c r="L41" s="58"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="58"/>
+      <c r="O41" s="61"/>
+      <c r="P41" s="64"/>
+      <c r="Q41" s="67"/>
       <c r="R41" s="30"/>
     </row>
-    <row r="42" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="62"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="64"/>
+    <row r="42" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="75"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
       <c r="E42" s="1">
         <v>4</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="41"/>
       <c r="K42" s="41"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="52"/>
-      <c r="O42" s="55"/>
-      <c r="P42" s="60"/>
-      <c r="Q42" s="58"/>
+      <c r="L42" s="58"/>
+      <c r="M42" s="55"/>
+      <c r="N42" s="58"/>
+      <c r="O42" s="61"/>
+      <c r="P42" s="64"/>
+      <c r="Q42" s="67"/>
       <c r="R42" s="30"/>
     </row>
-    <row r="43" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="65"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="6">
+    <row r="43" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="75"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="1">
         <v>5</v>
       </c>
-      <c r="F43" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="G43" s="71" t="s">
-        <v>64</v>
-      </c>
-      <c r="H43" s="42" t="s">
+      <c r="F43" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="I43" s="8"/>
-      <c r="J43" s="67"/>
-      <c r="K43" s="67"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="50"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="56"/>
-      <c r="P43" s="68"/>
-      <c r="Q43" s="69"/>
-      <c r="R43" s="70"/>
+      <c r="G43" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H43" s="29"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="55"/>
+      <c r="N43" s="58"/>
+      <c r="O43" s="61"/>
+      <c r="P43" s="64"/>
+      <c r="Q43" s="67"/>
+      <c r="R43" s="30"/>
+    </row>
+    <row r="44" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="76"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="6">
+        <v>6</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I44" s="8"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="59"/>
+      <c r="M44" s="56"/>
+      <c r="N44" s="59"/>
+      <c r="O44" s="62"/>
+      <c r="P44" s="65"/>
+      <c r="Q44" s="68"/>
+      <c r="R44" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="M39:M43"/>
-    <mergeCell ref="N39:N43"/>
-    <mergeCell ref="O39:O43"/>
-    <mergeCell ref="P39:P43"/>
-    <mergeCell ref="Q39:Q43"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="L39:L43"/>
-    <mergeCell ref="M33:M38"/>
-    <mergeCell ref="N33:N38"/>
-    <mergeCell ref="O33:O38"/>
-    <mergeCell ref="P33:P38"/>
-    <mergeCell ref="Q33:Q38"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="D33:D38"/>
-    <mergeCell ref="L33:L38"/>
-    <mergeCell ref="M24:M32"/>
-    <mergeCell ref="N24:N32"/>
-    <mergeCell ref="O24:O32"/>
-    <mergeCell ref="P24:P32"/>
-    <mergeCell ref="Q24:Q32"/>
-    <mergeCell ref="A24:A32"/>
-    <mergeCell ref="B24:B32"/>
-    <mergeCell ref="C24:C32"/>
-    <mergeCell ref="D24:D32"/>
-    <mergeCell ref="L24:L32"/>
-    <mergeCell ref="M15:M23"/>
-    <mergeCell ref="N15:N23"/>
-    <mergeCell ref="O15:O23"/>
-    <mergeCell ref="P15:P23"/>
-    <mergeCell ref="Q15:Q23"/>
-    <mergeCell ref="A15:A23"/>
-    <mergeCell ref="B15:B23"/>
-    <mergeCell ref="C15:C23"/>
-    <mergeCell ref="D15:D23"/>
-    <mergeCell ref="L15:L23"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="L12:L14"/>
     <mergeCell ref="Q12:Q14"/>
     <mergeCell ref="P12:P14"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="D12:D14"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="A15:A23"/>
+    <mergeCell ref="B15:B23"/>
+    <mergeCell ref="C15:C23"/>
+    <mergeCell ref="D15:D23"/>
+    <mergeCell ref="L15:L23"/>
+    <mergeCell ref="M15:M23"/>
+    <mergeCell ref="N15:N23"/>
+    <mergeCell ref="O15:O23"/>
+    <mergeCell ref="P15:P23"/>
+    <mergeCell ref="Q15:Q23"/>
+    <mergeCell ref="A24:A32"/>
+    <mergeCell ref="B24:B32"/>
+    <mergeCell ref="C24:C32"/>
+    <mergeCell ref="D24:D32"/>
+    <mergeCell ref="L24:L32"/>
+    <mergeCell ref="M24:M32"/>
+    <mergeCell ref="N24:N32"/>
+    <mergeCell ref="O24:O32"/>
+    <mergeCell ref="P24:P32"/>
+    <mergeCell ref="Q24:Q32"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="L33:L38"/>
+    <mergeCell ref="M33:M38"/>
+    <mergeCell ref="N33:N38"/>
+    <mergeCell ref="O33:O38"/>
+    <mergeCell ref="P33:P38"/>
+    <mergeCell ref="Q33:Q38"/>
+    <mergeCell ref="L39:L44"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="M39:M44"/>
+    <mergeCell ref="N39:N44"/>
+    <mergeCell ref="O39:O44"/>
+    <mergeCell ref="P39:P44"/>
+    <mergeCell ref="Q39:Q44"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12:I43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12:I44">
       <formula1>$I$9:$I$10</formula1>
     </dataValidation>
   </dataValidations>
@@ -3126,7 +3146,7 @@
       <pane xSplit="5" ySplit="11" topLeftCell="I12" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3192,13 +3212,13 @@
     </row>
     <row r="3" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="15"/>
@@ -3432,24 +3452,24 @@
       <c r="A12" s="44">
         <v>1</v>
       </c>
-      <c r="B12" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="63" t="s">
-        <v>85</v>
+      <c r="B12" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="72" t="s">
+        <v>74</v>
       </c>
       <c r="E12" s="13">
         <v>1</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" s="24"/>
       <c r="H12" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I12" s="28"/>
       <c r="J12" s="38">
@@ -3460,26 +3480,26 @@
         <f t="shared" ref="K12" si="1">+IF(I12="OK",1,0)</f>
         <v>0</v>
       </c>
-      <c r="L12" s="51">
+      <c r="L12" s="57">
         <f>+(COUNTIF(J12:J17,1))</f>
         <v>0</v>
       </c>
-      <c r="M12" s="48">
+      <c r="M12" s="54">
         <f>+COUNT(E12:E17)</f>
         <v>6</v>
       </c>
-      <c r="N12" s="51">
+      <c r="N12" s="57">
         <f>+(COUNTIF(K12:K17,1))</f>
         <v>0</v>
       </c>
-      <c r="O12" s="54">
-        <v>0</v>
-      </c>
-      <c r="P12" s="59">
+      <c r="O12" s="60">
+        <v>0</v>
+      </c>
+      <c r="P12" s="63">
         <f>+L12/M12</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="59">
+      <c r="Q12" s="63">
         <f>+N12/M12</f>
         <v>0</v>
       </c>
@@ -3487,152 +3507,152 @@
     </row>
     <row r="13" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="45"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="64"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="73"/>
       <c r="E13" s="1">
         <v>2</v>
       </c>
       <c r="F13" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="46" t="s">
+      <c r="H13" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="43"/>
       <c r="K13" s="41"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="60"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
       <c r="R13" s="33"/>
     </row>
     <row r="14" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="45"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="64"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="73"/>
       <c r="E14" s="1">
         <v>3</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="43"/>
       <c r="K14" s="41"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="60"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
       <c r="R14" s="33"/>
     </row>
     <row r="15" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="45"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="64"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="73"/>
       <c r="E15" s="1">
         <v>4</v>
       </c>
       <c r="F15" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="H15" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>42</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="43"/>
       <c r="K15" s="41"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="60"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
       <c r="R15" s="33"/>
     </row>
     <row r="16" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="45"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="64"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="73"/>
       <c r="E16" s="1">
         <v>5</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H16" s="29"/>
       <c r="I16" s="5"/>
       <c r="J16" s="43"/>
       <c r="K16" s="41"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="60"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
       <c r="R16" s="33"/>
     </row>
     <row r="17" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="74"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
       <c r="E17" s="6">
         <v>6</v>
       </c>
       <c r="F17" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="71" t="s">
-        <v>49</v>
-      </c>
       <c r="H17" s="8" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I17" s="8"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="73"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="M12:M17"/>
+    <mergeCell ref="N12:N17"/>
+    <mergeCell ref="O12:O17"/>
+    <mergeCell ref="P12:P17"/>
     <mergeCell ref="Q12:Q17"/>
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="C12:C17"/>
     <mergeCell ref="D12:D17"/>
     <mergeCell ref="L12:L17"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="M12:M17"/>
-    <mergeCell ref="N12:N17"/>
-    <mergeCell ref="O12:O17"/>
-    <mergeCell ref="P12:P17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
